--- a/spatial-transcriptomics/data/metadata_visium_brain.xlsx
+++ b/spatial-transcriptomics/data/metadata_visium_brain.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuvarani.masarapu/Documents/NASA_RR3/st-data/brain-rr3-st/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuvarani.masarapu/Documents/GitHub/NASA_RR3_Brain/spatial-transcriptomics/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61FCFDD1-DB34-8F4D-9477-BC2CC312703E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A9A1330-2C80-2145-B3DE-80CB06729B71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="15360" windowHeight="17000" xr2:uid="{A2FA3A16-0CBC-3E4E-B38D-CE215FCCF730}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
   <si>
     <t>sample_no</t>
   </si>
@@ -50,24 +50,6 @@
     <t>Ground</t>
   </si>
   <si>
-    <t>CF2_B</t>
-  </si>
-  <si>
-    <t>CF7_B</t>
-  </si>
-  <si>
-    <t>CF1_B</t>
-  </si>
-  <si>
-    <t>CG9_B</t>
-  </si>
-  <si>
-    <t>CG8_B</t>
-  </si>
-  <si>
-    <t>mice_id/bio_origin</t>
-  </si>
-  <si>
     <t>Sample_158_A1</t>
   </si>
   <si>
@@ -102,25 +84,79 @@
   </si>
   <si>
     <t>Sample_304_D1</t>
+  </si>
+  <si>
+    <t>F2_1</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>F2_2</t>
+  </si>
+  <si>
+    <t>F3_1</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>F3_2</t>
+  </si>
+  <si>
+    <t>G1_1</t>
+  </si>
+  <si>
+    <t>G1</t>
+  </si>
+  <si>
+    <t>G1_2</t>
+  </si>
+  <si>
+    <t>F1_1</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>F1_2</t>
+  </si>
+  <si>
+    <t>G3_1</t>
+  </si>
+  <si>
+    <t>G3</t>
+  </si>
+  <si>
+    <t>G3_2</t>
+  </si>
+  <si>
+    <t>G2_1</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>G2_2</t>
+  </si>
+  <si>
+    <t>sample_id</t>
+  </si>
+  <si>
+    <t>section_id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -143,9 +179,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -164,7 +199,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -452,7 +487,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -460,19 +495,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{047927F2-CAF4-F242-AC64-28FDCA174698}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -480,178 +516,217 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" t="s">
         <v>4</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
